--- a/BDD_EntrenamentModel_Estadístiques-La_Liga-2023-2024.xlsx
+++ b/BDD_EntrenamentModel_Estadístiques-La_Liga-2023-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottocapo/Desktop/Treball-de-Recerca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4BDBF-CCE0-1740-A8DE-E82C7995A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08F849-ACE6-6D4A-836B-8E6B3F3B8456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3740" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassificacióGeneral" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <t>Victory</t>
   </si>
   <si>
-    <t>Victory_binaria</t>
+    <t>Victory_numerica</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3101,14 +3101,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA04389-CD87-D942-A6B0-9AD6EFE6B8FB}">
   <dimension ref="A1:AI823"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="4" max="5" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -88368,6 +88369,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E192239804AF274B928FEED3B986781B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e4a9c3796cf018257a408b8c58805ae5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="497eaadd-c17d-424c-8406-395375efea82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="481681452d417b51c29617063f4cdf1c" ns2:_="">
     <xsd:import namespace="497eaadd-c17d-424c-8406-395375efea82"/>
@@ -88535,12 +88542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B947471B-7EF9-4014-9964-F34856843DA6}">
   <ds:schemaRefs>
@@ -88550,6 +88551,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D1D433D-29DA-4520-B5BE-D239AC2A4153}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D34529-A92C-4470-874C-4CF7EBEC243B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -88565,13 +88575,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D1D433D-29DA-4520-B5BE-D239AC2A4153}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>